--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Desktop\LocalDotaciones\2018\3.ControlContratacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C904D-4E9F-413D-B905-A08F476CC300}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B44452-3B12-4E94-A691-B47AF492B71A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="183">
   <si>
     <t>Amazonas</t>
   </si>
@@ -619,7 +619,10 @@
     <t>N° Beneficiarios</t>
   </si>
   <si>
-    <t>Total recursos asignados en Rubro Acciones para el mejoramiento</t>
+    <t>Aprox. recursos Dotaciones</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1322,60 +1325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1408,6 +1357,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,24 +1397,24 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1462,22 +1439,55 @@
     <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -3573,7 +3583,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="86" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -3608,7 +3618,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -4734,7 +4744,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="88" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4761,7 +4771,7 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -5811,23 +5821,23 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="66">
         <v>9136808452</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="66">
         <v>165574720</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="69">
         <f>+B20+C20+D20</f>
         <v>9302383172</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="68">
         <f t="shared" si="1"/>
         <v>4.7582924077151527E-2</v>
       </c>
@@ -6194,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFB718-73D1-4385-BBDD-8690F1E4424A}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,14 +6222,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -6278,50 +6288,50 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="110" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="118" t="s">
+      <c r="I7" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="118" t="s">
+      <c r="J7" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="82" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="50">
         <v>2017</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="H8" s="119">
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="H8" s="83">
         <v>2016</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="84">
         <f>D4</f>
         <v>434</v>
       </c>
@@ -6329,13 +6339,13 @@
         <f>E4</f>
         <v>44484</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K8" s="85">
         <f>F4</f>
         <v>17455342937</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
+      <c r="A9" s="115">
         <v>2017</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -6353,24 +6363,24 @@
       <c r="F9" s="52">
         <v>44874337891</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="83">
         <v>2017</v>
       </c>
       <c r="I9" s="65">
         <f>D19</f>
         <v>68638</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="84">
         <f>E19</f>
         <v>1457479</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="85">
         <f>F19</f>
         <v>177674173873</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="51" t="s">
         <v>108</v>
       </c>
@@ -6386,10 +6396,10 @@
       <c r="F10" s="52">
         <v>23578675453</v>
       </c>
-      <c r="H10" s="119">
+      <c r="H10" s="83">
         <v>2018</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="84">
         <f>E32</f>
         <v>33</v>
       </c>
@@ -6397,13 +6407,13 @@
         <f>F32</f>
         <v>4163</v>
       </c>
-      <c r="K10" s="121">
-        <f>G32</f>
-        <v>3530622513</v>
+      <c r="K10" s="85">
+        <f>H32</f>
+        <v>1703689447</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="51" t="s">
         <v>109</v>
       </c>
@@ -6419,24 +6429,26 @@
       <c r="F11" s="52">
         <v>16805419742</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="120">
+      <c r="H11" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="123">
         <f>SUM(I8:I10)</f>
         <v>69105</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="123">
         <f>SUM(J8:J10)</f>
         <v>1506126</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="124">
         <f>SUM(K8:K10)</f>
-        <v>198660139323</v>
+        <v>196833206257</v>
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="51" t="s">
         <v>110</v>
       </c>
@@ -6454,7 +6466,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="51" t="s">
         <v>111</v>
       </c>
@@ -6472,7 +6484,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="51" t="s">
         <v>113</v>
       </c>
@@ -6490,7 +6502,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="51" t="s">
         <v>114</v>
       </c>
@@ -6508,7 +6520,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="51" t="s">
         <v>115</v>
       </c>
@@ -6526,7 +6538,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="51" t="s">
         <v>116</v>
       </c>
@@ -6544,7 +6556,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="51" t="s">
         <v>117</v>
       </c>
@@ -6562,7 +6574,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="58" t="s">
         <v>73</v>
       </c>
@@ -6578,45 +6590,45 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="110" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="111" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="50">
         <v>2017</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="70"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="112">
         <v>2018</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -6642,7 +6654,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="51" t="s">
         <v>108</v>
       </c>
@@ -6666,7 +6678,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="51" t="s">
         <v>109</v>
       </c>
@@ -6690,7 +6702,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="51" t="s">
         <v>119</v>
       </c>
@@ -6714,7 +6726,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="51" t="s">
         <v>120</v>
       </c>
@@ -6738,7 +6750,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="51" t="s">
         <v>117</v>
       </c>
@@ -6762,7 +6774,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="51" t="s">
         <v>121</v>
       </c>
@@ -6786,7 +6798,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51" t="s">
         <v>177</v>
       </c>
@@ -6819,7 +6831,7 @@
         <f>SUM(D24:D31)</f>
         <v>13</v>
       </c>
-      <c r="E32" s="117">
+      <c r="E32" s="81">
         <f>SUM(E24:E31)</f>
         <v>33</v>
       </c>
@@ -6838,345 +6850,361 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="98" t="s">
+      <c r="I36" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="92" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="89" t="s">
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="101"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="90">
+      <c r="B38" s="72">
         <v>1</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="74">
         <v>100</v>
       </c>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="H38" s="92">
+      <c r="H38" s="74">
         <v>1</v>
       </c>
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="95">
+      <c r="J38" s="77">
         <v>141965000</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="90">
+      <c r="B39" s="72">
         <v>2</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="74">
         <v>580</v>
       </c>
-      <c r="G39" s="91" t="s">
+      <c r="G39" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="H39" s="92">
+      <c r="H39" s="74">
         <v>1</v>
       </c>
-      <c r="I39" s="93" t="s">
+      <c r="I39" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="J39" s="95">
+      <c r="J39" s="77">
         <v>681447500</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90">
+      <c r="B40" s="72">
         <v>3</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="91" t="s">
+      <c r="D40" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="74">
         <v>95</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="92">
+      <c r="H40" s="74">
         <v>1</v>
       </c>
-      <c r="I40" s="96" t="s">
+      <c r="I40" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="J40" s="95">
+      <c r="J40" s="77">
         <v>22319775</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="90">
+      <c r="B41" s="72">
         <v>4</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="91" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="95">
+      <c r="H41" s="74"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="77">
         <v>165574720</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="90">
+      <c r="B42" s="72">
         <v>5</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91" t="s">
+      <c r="D42" s="73"/>
+      <c r="E42" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="92">
+      <c r="F42" s="74">
         <v>300</v>
       </c>
-      <c r="G42" s="91" t="s">
+      <c r="G42" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="92">
+      <c r="H42" s="74">
         <v>1</v>
       </c>
-      <c r="I42" s="93" t="s">
+      <c r="I42" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="J42" s="95">
+      <c r="J42" s="77">
         <v>283945500</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90">
+      <c r="B43" s="72">
         <v>6</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91" t="s">
+      <c r="D43" s="73"/>
+      <c r="E43" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="92">
+      <c r="F43" s="74">
         <v>2578</v>
       </c>
-      <c r="G43" s="91" t="s">
+      <c r="G43" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="92"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="95">
+      <c r="H43" s="74"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="77">
         <v>286569752</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90">
+      <c r="B44" s="72">
         <v>7</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="E44" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="91" t="s">
+      <c r="F44" s="74"/>
+      <c r="G44" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="92">
+      <c r="H44" s="74">
         <v>1</v>
       </c>
-      <c r="I44" s="93" t="s">
+      <c r="I44" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J44" s="77">
         <v>3338200</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90">
+      <c r="B45" s="72">
         <v>8</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="D45" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="E45" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="F45" s="92">
+      <c r="F45" s="74">
         <v>300</v>
       </c>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="74">
         <v>1</v>
       </c>
-      <c r="I45" s="93"/>
-      <c r="J45" s="95">
+      <c r="I45" s="75"/>
+      <c r="J45" s="77">
         <v>5460000</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="90">
+      <c r="B46" s="72">
         <v>9</v>
       </c>
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="91" t="s">
+      <c r="D46" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="91" t="s">
+      <c r="E46" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="92">
+      <c r="F46" s="74">
         <v>60</v>
       </c>
-      <c r="G46" s="91" t="s">
+      <c r="G46" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="92">
+      <c r="H46" s="74">
         <v>1</v>
       </c>
-      <c r="I46" s="93"/>
-      <c r="J46" s="95">
+      <c r="I46" s="75"/>
+      <c r="J46" s="77">
         <v>85179000</v>
       </c>
-      <c r="K46" s="94">
+      <c r="K46" s="76">
         <f>J46/F46</f>
         <v>1419650</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="90">
+      <c r="B47" s="72">
         <v>10</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="91" t="s">
+      <c r="D47" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="91" t="s">
+      <c r="E47" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="92"/>
-      <c r="G47" s="91" t="s">
+      <c r="F47" s="74"/>
+      <c r="G47" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="74">
         <v>1</v>
       </c>
-      <c r="I47" s="93"/>
-      <c r="J47" s="95">
+      <c r="I47" s="75"/>
+      <c r="J47" s="77">
         <v>33500000</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="103"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108" t="s">
+      <c r="B48" s="94"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="110">
+      <c r="F48" s="102">
         <v>4013</v>
       </c>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110">
+      <c r="G48" s="102"/>
+      <c r="H48" s="102">
         <v>8</v>
       </c>
-      <c r="I48" s="112"/>
-      <c r="J48" s="114">
+      <c r="I48" s="104"/>
+      <c r="J48" s="106">
         <v>1709299447</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="102"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="115"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
@@ -7193,22 +7221,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7371,30 +7383,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="116" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="118">
         <v>300</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="120" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">

--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B44452-3B12-4E94-A691-B47AF492B71A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE1DC2-A4FD-4329-A2D7-490EABC57B78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlContratacion2016" sheetId="2" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1373,6 +1373,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,12 +1392,36 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,30 +1470,6 @@
     <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,13 +1488,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -3561,11 +3566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22:J22"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3588,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -3618,7 +3623,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -4179,31 +4184,31 @@
         <v>5235545657</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18">
+      <c r="B22" s="23"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126">
         <v>3734617908</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="23">
         <v>889093139</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
         <v>2802186321</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="23">
         <v>1640911084</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="23">
         <v>70000000</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23">
         <f t="shared" si="0"/>
         <v>9136808452</v>
       </c>
@@ -4744,7 +4749,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="91" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4771,7 +4776,7 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -6204,7 +6209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFB718-73D1-4385-BBDD-8690F1E4424A}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6222,14 +6227,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -6288,22 +6293,22 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="94" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="94" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="82" t="s">
@@ -6320,14 +6325,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="50">
         <v>2017</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="H8" s="83">
         <v>2016</v>
       </c>
@@ -6345,7 +6350,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="115">
+      <c r="A9" s="98">
         <v>2017</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -6380,7 +6385,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="51" t="s">
         <v>108</v>
       </c>
@@ -6413,7 +6418,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="51" t="s">
         <v>109</v>
       </c>
@@ -6429,18 +6434,18 @@
       <c r="F11" s="52">
         <v>16805419742</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="123">
+      <c r="I11" s="87">
         <f>SUM(I8:I10)</f>
         <v>69105</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="87">
         <f>SUM(J8:J10)</f>
         <v>1506126</v>
       </c>
-      <c r="K11" s="124">
+      <c r="K11" s="88">
         <f>SUM(K8:K10)</f>
         <v>196833206257</v>
       </c>
@@ -6448,7 +6453,7 @@
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="51" t="s">
         <v>110</v>
       </c>
@@ -6466,7 +6471,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="51" t="s">
         <v>111</v>
       </c>
@@ -6484,7 +6489,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="51" t="s">
         <v>113</v>
       </c>
@@ -6502,7 +6507,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="51" t="s">
         <v>114</v>
       </c>
@@ -6520,7 +6525,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="51" t="s">
         <v>115</v>
       </c>
@@ -6538,7 +6543,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="51" t="s">
         <v>116</v>
       </c>
@@ -6556,7 +6561,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="51" t="s">
         <v>117</v>
       </c>
@@ -6574,7 +6579,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="58" t="s">
         <v>73</v>
       </c>
@@ -6590,45 +6595,45 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="94" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="110" t="s">
+      <c r="F22" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="111" t="s">
+      <c r="H22" s="93" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="50">
         <v>2017</v>
       </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="112">
+      <c r="A24" s="95">
         <v>2018</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -6654,7 +6659,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="51" t="s">
         <v>108</v>
       </c>
@@ -6678,7 +6683,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="51" t="s">
         <v>109</v>
       </c>
@@ -6702,7 +6707,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="51" t="s">
         <v>119</v>
       </c>
@@ -6726,7 +6731,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="51" t="s">
         <v>120</v>
       </c>
@@ -6750,7 +6755,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="51" t="s">
         <v>117</v>
       </c>
@@ -6774,7 +6779,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="51" t="s">
         <v>121</v>
       </c>
@@ -6850,46 +6855,46 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="99" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="90" t="s">
+      <c r="I36" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="92" t="s">
+      <c r="J36" s="103" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="93"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
@@ -7158,53 +7163,37 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="94"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="100" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="102">
+      <c r="F48" s="113">
         <v>4013</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102">
+      <c r="G48" s="113"/>
+      <c r="H48" s="113">
         <v>8</v>
       </c>
-      <c r="I48" s="104"/>
-      <c r="J48" s="106">
+      <c r="I48" s="115"/>
+      <c r="J48" s="117">
         <v>1709299447</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="95"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="107"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
@@ -7221,6 +7210,22 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7383,30 +7388,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="121">
         <v>300</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="123" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">

--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE1DC2-A4FD-4329-A2D7-490EABC57B78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604D978-CE94-495F-9389-48A405465388}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlContratacion2016" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="183">
   <si>
     <t>Amazonas</t>
   </si>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1380,119 +1380,123 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -3566,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3588,7 +3592,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -3623,7 +3627,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -4184,13 +4188,13 @@
         <v>5235545657</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+    <row r="22" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126">
+      <c r="C22" s="90"/>
+      <c r="D22" s="90">
         <v>3734617908</v>
       </c>
       <c r="E22" s="23">
@@ -4749,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4776,7 +4780,7 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -6209,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFB718-73D1-4385-BBDD-8690F1E4424A}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6224,17 +6228,18 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -6293,22 +6298,22 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="116" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="116" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="82" t="s">
@@ -6325,14 +6330,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="50">
         <v>2017</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="H8" s="83">
         <v>2016</v>
       </c>
@@ -6350,7 +6355,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="121">
         <v>2017</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -6385,7 +6390,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="51" t="s">
         <v>108</v>
       </c>
@@ -6404,9 +6409,8 @@
       <c r="H10" s="83">
         <v>2018</v>
       </c>
-      <c r="I10" s="84">
-        <f>E32</f>
-        <v>33</v>
+      <c r="I10" s="129">
+        <v>36</v>
       </c>
       <c r="J10" s="65">
         <f>F32</f>
@@ -6416,9 +6420,15 @@
         <f>H32</f>
         <v>1703689447</v>
       </c>
+      <c r="L10" s="85">
+        <v>359000000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="51" t="s">
         <v>109</v>
       </c>
@@ -6439,7 +6449,7 @@
       </c>
       <c r="I11" s="87">
         <f>SUM(I8:I10)</f>
-        <v>69105</v>
+        <v>69108</v>
       </c>
       <c r="J11" s="87">
         <f>SUM(J8:J10)</f>
@@ -6453,7 +6463,7 @@
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="51" t="s">
         <v>110</v>
       </c>
@@ -6469,9 +6479,13 @@
       <c r="F12" s="52">
         <v>76751532833</v>
       </c>
+      <c r="L12" s="128">
+        <f>K10+L10</f>
+        <v>2062689447</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="51" t="s">
         <v>111</v>
       </c>
@@ -6489,7 +6503,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="51" t="s">
         <v>113</v>
       </c>
@@ -6507,7 +6521,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="51" t="s">
         <v>114</v>
       </c>
@@ -6525,7 +6539,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="51" t="s">
         <v>115</v>
       </c>
@@ -6543,7 +6557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="51" t="s">
         <v>116</v>
       </c>
@@ -6561,7 +6575,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="51" t="s">
         <v>117</v>
       </c>
@@ -6579,7 +6593,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="58" t="s">
         <v>73</v>
       </c>
@@ -6595,45 +6609,45 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="116" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="94" t="s">
+      <c r="G22" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="117" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="50">
         <v>2017</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="93"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
+      <c r="A24" s="118">
         <v>2018</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -6659,7 +6673,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="51" t="s">
         <v>108</v>
       </c>
@@ -6683,7 +6697,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="51" t="s">
         <v>109</v>
       </c>
@@ -6707,7 +6721,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="51" t="s">
         <v>119</v>
       </c>
@@ -6731,7 +6745,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="51" t="s">
         <v>120</v>
       </c>
@@ -6755,7 +6769,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="51" t="s">
         <v>117</v>
       </c>
@@ -6779,7 +6793,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="51" t="s">
         <v>121</v>
       </c>
@@ -6855,46 +6869,46 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="99" t="s">
+      <c r="F36" s="96" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="99" t="s">
+      <c r="H36" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="99" t="s">
+      <c r="I36" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="103" t="s">
+      <c r="J36" s="98" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="104"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="99"/>
     </row>
     <row r="38" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
@@ -7163,37 +7177,53 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="105"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="111" t="s">
+      <c r="B48" s="100"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="113">
+      <c r="F48" s="108">
         <v>4013</v>
       </c>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113">
+      <c r="G48" s="108"/>
+      <c r="H48" s="108">
         <v>8</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="117">
+      <c r="I48" s="110"/>
+      <c r="J48" s="112">
         <v>1709299447</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="118"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
@@ -7210,22 +7240,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7388,30 +7402,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="122" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="124">
         <v>300</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="126" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">

--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/Resumen Recursos 2016-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604D978-CE94-495F-9389-48A405465388}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3D737C-8758-445C-A55C-DCB3A2225DDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7170" tabRatio="775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,117 +1385,117 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3592,7 +3592,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -3627,7 +3627,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -4753,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="31" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4780,7 +4780,7 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
@@ -6214,7 +6214,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,14 +6232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -6298,22 +6298,22 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="99" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="99" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="82" t="s">
@@ -6330,14 +6330,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="50">
         <v>2017</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
       <c r="H8" s="83">
         <v>2016</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="121">
+      <c r="A9" s="103">
         <v>2017</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -6390,7 +6390,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="51" t="s">
         <v>108</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="H10" s="83">
         <v>2018</v>
       </c>
-      <c r="I10" s="129">
+      <c r="I10" s="93">
         <v>36</v>
       </c>
       <c r="J10" s="65">
@@ -6428,7 +6428,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="51" t="s">
         <v>109</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="51" t="s">
         <v>110</v>
       </c>
@@ -6479,13 +6479,13 @@
       <c r="F12" s="52">
         <v>76751532833</v>
       </c>
-      <c r="L12" s="128">
+      <c r="L12" s="92">
         <f>K10+L10</f>
         <v>2062689447</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="51" t="s">
         <v>111</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="51" t="s">
         <v>113</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="51" t="s">
         <v>114</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="51" t="s">
         <v>115</v>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="51" t="s">
         <v>116</v>
       </c>
@@ -6575,7 +6575,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="51" t="s">
         <v>117</v>
       </c>
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="58" t="s">
         <v>73</v>
       </c>
@@ -6609,45 +6609,45 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="99" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="98" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="50">
         <v>2017</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="118">
+      <c r="A24" s="100">
         <v>2018</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -6673,7 +6673,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="51" t="s">
         <v>108</v>
       </c>
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="51" t="s">
         <v>109</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="51" t="s">
         <v>119</v>
       </c>
@@ -6745,7 +6745,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="51" t="s">
         <v>120</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="51" t="s">
         <v>117</v>
       </c>
@@ -6793,7 +6793,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="51" t="s">
         <v>121</v>
       </c>
@@ -6869,46 +6869,46 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="104" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="96" t="s">
+      <c r="I36" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="98" t="s">
+      <c r="J36" s="108" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
       <c r="G37" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="99"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="109"/>
     </row>
     <row r="38" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
@@ -7177,53 +7177,37 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="100"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="106" t="s">
+      <c r="B48" s="110"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="108">
+      <c r="F48" s="118">
         <v>4013</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108">
+      <c r="G48" s="118"/>
+      <c r="H48" s="118">
         <v>8</v>
       </c>
-      <c r="I48" s="110"/>
-      <c r="J48" s="112">
+      <c r="I48" s="120"/>
+      <c r="J48" s="122">
         <v>1709299447</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="113"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
@@ -7240,6 +7224,22 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7402,30 +7402,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="124" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="126">
         <v>300</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="128" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
